--- a/FracturedSpace/deck.xlsx
+++ b/FracturedSpace/deck.xlsx
@@ -53,7 +53,7 @@
     <t>For majority in RED gain</t>
   </si>
   <si>
-    <t>Majoritaire sur RED :</t>
+    <t>Majoritaire sur :RED: :</t>
   </si>
   <si>
     <t>Eternal Palace</t>
@@ -62,7 +62,7 @@
     <t>For each BLUE gain</t>
   </si>
   <si>
-    <t>Pour chaque BLUE :</t>
+    <t>Pour chaque :BLUE: :</t>
   </si>
   <si>
     <t>The Great Library of Ahm</t>
@@ -74,7 +74,7 @@
     <t>For majority in PINK gain</t>
   </si>
   <si>
-    <t>Majoritaire sur PINK :</t>
+    <t>Majoritaire sur :PINK: :</t>
   </si>
   <si>
     <t>The Mana Well</t>
@@ -83,7 +83,7 @@
     <t>For each set of YELLOW RED PINK gain</t>
   </si>
   <si>
-    <t>Par lot de YELLOW RED PINK :</t>
+    <t>Par lot de :YELLOW: :RED: :PINK: :</t>
   </si>
   <si>
     <t>The Citadel of the Prophets</t>
@@ -92,7 +92,7 @@
     <t>For each GREEN gain</t>
   </si>
   <si>
-    <t>Pour chaque GREEN :</t>
+    <t>Pour chaque :GREEN: :</t>
   </si>
   <si>
     <t>Golden Ziggurat</t>
@@ -104,7 +104,7 @@
     <t>For majority in YELLOW gain</t>
   </si>
   <si>
-    <t>Majoritaire sur YELLOW :</t>
+    <t>Majoritaire sur :YELLOW: :</t>
   </si>
   <si>
     <t>Gods Baths</t>
@@ -113,7 +113,7 @@
     <t>For each RED gain</t>
   </si>
   <si>
-    <t>Pour chaque RED :</t>
+    <t>Pour chaque :RED: :</t>
   </si>
   <si>
     <t>The Maze of the Damned</t>
@@ -122,7 +122,7 @@
     <t>For a set of YELLOW RED GREEN BLUE PINK gain</t>
   </si>
   <si>
-    <t>Pour YELLOW RED GREEN BLUE PINK : </t>
+    <t>Pour :YELLOW: :RED: :GREEN: :BLUE: :PINK: : </t>
   </si>
   <si>
     <t>The Eye of the North</t>
@@ -143,7 +143,7 @@
     <t>For each PINK gain</t>
   </si>
   <si>
-    <t>Pour chaque PINK :</t>
+    <t>Pour chaque :PINK: :</t>
   </si>
   <si>
     <t>Old Man's Pass</t>
@@ -152,7 +152,7 @@
     <t>For majority in BLUE gain</t>
   </si>
   <si>
-    <t>Majoritaire sur BLUE :</t>
+    <t>Majoritaire sur :BLUE: :</t>
   </si>
   <si>
     <t>Blood-tear Spring</t>
@@ -164,7 +164,7 @@
     <t>For majority in GREEN gain</t>
   </si>
   <si>
-    <t>Majoritaire sur GREEN :</t>
+    <t>Majoritaire sur :GREEN: :</t>
   </si>
   <si>
     <t>The Sky Pillars</t>
@@ -173,7 +173,7 @@
     <t>For each set of BLUE GREEN gain</t>
   </si>
   <si>
-    <t>Par lot de BLUE GREEN :</t>
+    <t>Par lot de :BLUE: :GREEN: :</t>
   </si>
   <si>
     <t>The Vestibule</t>
@@ -182,7 +182,7 @@
     <t>For each YELLOW gain</t>
   </si>
   <si>
-    <t>Pour chaque YELLOW :</t>
+    <t>Pour chaque :YELLOW: :</t>
   </si>
   <si>
     <t>The Molehill</t>
@@ -227,6 +227,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -311,7 +312,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
+      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>

--- a/FracturedSpace/deck.xlsx
+++ b/FracturedSpace/deck.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="90">
   <si>
     <t>Title</t>
   </si>
@@ -38,6 +38,9 @@
     <t>Kings Nest</t>
   </si>
   <si>
+    <t>Mercenaires</t>
+  </si>
+  <si>
     <t>YELLOW</t>
   </si>
   <si>
@@ -50,24 +53,39 @@
     <t>Ancient Divide</t>
   </si>
   <si>
+    <t>Élite</t>
+  </si>
+  <si>
     <t>For majority in RED gain</t>
   </si>
   <si>
     <t>Majoritaire sur :RED: :</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>Eternal Palace</t>
   </si>
   <si>
+    <t>Propulsion Ionique</t>
+  </si>
+  <si>
     <t>For each BLUE gain</t>
   </si>
   <si>
     <t>Pour chaque :BLUE: :</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>The Great Library of Ahm</t>
   </si>
   <si>
+    <t>Arcanes</t>
+  </si>
+  <si>
     <t>BLUE</t>
   </si>
   <si>
@@ -80,15 +98,24 @@
     <t>The Mana Well</t>
   </si>
   <si>
+    <t>Exploration</t>
+  </si>
+  <si>
     <t>For each set of YELLOW RED PINK gain</t>
   </si>
   <si>
     <t>Par lot de :YELLOW: :RED: :PINK: :</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>The Citadel of the Prophets</t>
   </si>
   <si>
+    <t>Caverne Blanche</t>
+  </si>
+  <si>
     <t>For each GREEN gain</t>
   </si>
   <si>
@@ -98,6 +125,9 @@
     <t>Golden Ziggurat</t>
   </si>
   <si>
+    <t>Oeil du Nord</t>
+  </si>
+  <si>
     <t>GREEN</t>
   </si>
   <si>
@@ -110,6 +140,9 @@
     <t>Gods Baths</t>
   </si>
   <si>
+    <t>Bain des Dieux</t>
+  </si>
+  <si>
     <t>For each RED gain</t>
   </si>
   <si>
@@ -119,15 +152,24 @@
     <t>The Maze of the Damned</t>
   </si>
   <si>
+    <t>Labyrinthe des Damnés</t>
+  </si>
+  <si>
     <t>For a set of YELLOW RED GREEN BLUE PINK gain</t>
   </si>
   <si>
     <t>Pour :YELLOW: :RED: :GREEN: :BLUE: :PINK: : </t>
   </si>
   <si>
+    <t>13</t>
+  </si>
+  <si>
     <t>The Eye of the North</t>
   </si>
   <si>
+    <t>Vallée du Mana</t>
+  </si>
+  <si>
     <t>RED</t>
   </si>
   <si>
@@ -140,6 +182,9 @@
     <t>The Jinn Shackles</t>
   </si>
   <si>
+    <t>Rêve D'Escher</t>
+  </si>
+  <si>
     <t>For each PINK gain</t>
   </si>
   <si>
@@ -149,6 +194,9 @@
     <t>Old Man's Pass</t>
   </si>
   <si>
+    <t>Culture Automatisée</t>
+  </si>
+  <si>
     <t>For majority in BLUE gain</t>
   </si>
   <si>
@@ -158,6 +206,9 @@
     <t>Blood-tear Spring</t>
   </si>
   <si>
+    <t>Larmes du Ciel</t>
+  </si>
+  <si>
     <t>PINK</t>
   </si>
   <si>
@@ -170,15 +221,24 @@
     <t>The Sky Pillars</t>
   </si>
   <si>
+    <t>Tête de Pont</t>
+  </si>
+  <si>
     <t>For each set of BLUE GREEN gain</t>
   </si>
   <si>
     <t>Par lot de :BLUE: :GREEN: :</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>The Vestibule</t>
   </si>
   <si>
+    <t>Citadelle de Sang</t>
+  </si>
+  <si>
     <t>For each YELLOW gain</t>
   </si>
   <si>
@@ -188,6 +248,9 @@
     <t>The Molehill</t>
   </si>
   <si>
+    <t>Puit des Enfers</t>
+  </si>
+  <si>
     <t>NO</t>
   </si>
   <si>
@@ -197,9 +260,15 @@
     <t>Majorité de couleurs avec une seule carte</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>The Roof of the World</t>
   </si>
   <si>
+    <t>Cité des Anciens</t>
+  </si>
+  <si>
     <t>Double the amount of your most numerous suit(s)</t>
   </si>
   <si>
@@ -207,6 +276,9 @@
   </si>
   <si>
     <t>The Sapphire Port</t>
+  </si>
+  <si>
+    <t>Trésor Inattendu</t>
   </si>
   <si>
     <t>If you have the highest scoring card</t>
@@ -312,7 +384,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -350,353 +422,353 @@
         <v>6</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>3</v>
+        <v>19</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>7</v>
+        <v>25</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>9</v>
+        <v>29</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>17</v>
-      </c>
       <c r="D7" s="0" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>3</v>
+        <v>34</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>7</v>
+        <v>39</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>3</v>
+        <v>43</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>13</v>
+        <v>47</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>3</v>
+        <v>53</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>3</v>
+        <v>57</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>7</v>
+        <v>61</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>7</v>
+        <v>66</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>5</v>
+        <v>70</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>3</v>
+        <v>75</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <v>8</v>
+        <v>80</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <v>8</v>
+        <v>89</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
